--- a/ergebnisse/phase_1/Stakeholderanalyse/Stakeholderanalyse Excel.xlsx
+++ b/ergebnisse/phase_1/Stakeholderanalyse/Stakeholderanalyse Excel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeonK\Nextcloud\HSW\4. Semester\IT-Projektmanagement\Fallstudie\itpm_fallstudie\ergebnisse\phase_1\Stakeholderanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAA0481-52BB-41A7-9929-86A71FA83344}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A9F209-E22C-4EBA-B1A0-E57A552BC379}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Stakeholder</t>
   </si>
@@ -110,6 +110,9 @@
   <si>
     <t>Gesellschafter 
 (Auftraggeber)</t>
+  </si>
+  <si>
+    <t>negativ</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>

--- a/ergebnisse/phase_1/Stakeholderanalyse/Stakeholderanalyse Excel.xlsx
+++ b/ergebnisse/phase_1/Stakeholderanalyse/Stakeholderanalyse Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeonK\Nextcloud\HSW\4. Semester\IT-Projektmanagement\Fallstudie\itpm_fallstudie\ergebnisse\phase_1\Stakeholderanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A9F209-E22C-4EBA-B1A0-E57A552BC379}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B62791-282E-41B1-8E3B-54FFBA61050D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Stakeholder</t>
   </si>
@@ -56,14 +56,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>positives Projekt
-inherhalb des Zeitraumes</t>
-  </si>
-  <si>
-    <t>interne Kommunikation
-Geschäftsführer</t>
   </si>
   <si>
     <t>"Schmankerl"</t>
@@ -89,30 +81,35 @@
 beauftragter</t>
   </si>
   <si>
-    <t xml:space="preserve">positives Projekt </t>
-  </si>
-  <si>
     <t>Projektleiter</t>
   </si>
   <si>
-    <t>positives Projekt</t>
-  </si>
-  <si>
     <t>Projektteam</t>
   </si>
   <si>
+    <t>negativ</t>
+  </si>
+  <si>
+    <t>erfolgreiches Projekt</t>
+  </si>
+  <si>
+    <t>Leistungs- und
+ Effizienz-Steigerung</t>
+  </si>
+  <si>
+    <t>gut dokumentiertes
+ und lauffähiges Intranet</t>
+  </si>
+  <si>
     <t>Klinik-IT
-(als Unternehmen)</t>
-  </si>
-  <si>
-    <t>positives Image</t>
-  </si>
-  <si>
-    <t>Gesellschafter 
 (Auftraggeber)</t>
   </si>
   <si>
-    <t>negativ</t>
+    <t>Gesellschafter</t>
+  </si>
+  <si>
+    <t>"interne Kommunikation"-
+Geschäftsführer</t>
   </si>
 </sst>
 </file>
@@ -348,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,6 +402,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -724,7 +724,7 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -782,21 +782,21 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="11">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -810,27 +810,27 @@
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F6" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -844,13 +844,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -861,64 +861,64 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>23</v>
+      <c r="D12" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="8">
         <v>5</v>
